--- a/Portal_Data_0306.xlsx
+++ b/Portal_Data_0306.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10197378\Desktop\CPI\Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10197378\Desktop\CPI\Dashboard\Github_Files\CPI_Bahrain-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21F9E00-15B8-42E7-A690-FAE97BE2E7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF084121-B219-4AC0-A957-B2AB1F5833B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="1 Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 Table'!$A$1:$AI$222</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 Table'!$A$1:$AG$222</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="64">
   <si>
     <t>Indicator</t>
   </si>
@@ -210,12 +210,18 @@
   <si>
     <t>United Arab Emirates</t>
   </si>
+  <si>
+    <t>2022-05</t>
+  </si>
+  <si>
+    <t>2022-06</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +233,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -610,15 +622,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE222"/>
+  <dimension ref="A1:AG222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,8 +725,14 @@
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -804,8 +823,14 @@
       <c r="AD2">
         <v>100.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE2">
+        <v>99.6</v>
+      </c>
+      <c r="AF2">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -896,8 +921,14 @@
       <c r="AD3">
         <v>124.36</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE3">
+        <v>128.99491728839001</v>
+      </c>
+      <c r="AF3">
+        <v>130.19999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -988,8 +1019,14 @@
       <c r="AD4">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE4">
+        <v>116.2</v>
+      </c>
+      <c r="AF4">
+        <v>116.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1083,8 +1120,11 @@
       <c r="AE5">
         <v>105.99</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF5">
+        <v>106.52647649009005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1175,8 +1215,14 @@
       <c r="AD6">
         <v>124.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE6">
+        <v>124.6</v>
+      </c>
+      <c r="AF6">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1267,8 +1313,14 @@
       <c r="AD7">
         <v>1019.81</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE7">
+        <v>1092.2143615156001</v>
+      </c>
+      <c r="AF7">
+        <v>1177.9901683857299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1354,7 +1406,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1445,8 +1497,11 @@
       <c r="AD9">
         <v>123.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE9">
+        <v>124.84053868130533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1537,8 +1592,14 @@
       <c r="AD10">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE10">
+        <v>109.9</v>
+      </c>
+      <c r="AF10">
+        <v>110.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1629,8 +1690,11 @@
       <c r="AD11">
         <v>108.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE11">
+        <v>109.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1721,8 +1785,14 @@
       <c r="AD12">
         <v>105.13</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE12">
+        <v>106.27</v>
+      </c>
+      <c r="AF12">
+        <v>105.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1813,8 +1883,17 @@
       <c r="AD13">
         <v>101.48</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE13">
+        <v>101.77</v>
+      </c>
+      <c r="AF13">
+        <v>103.13</v>
+      </c>
+      <c r="AG13">
+        <v>103.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1905,8 +1984,14 @@
       <c r="AD14">
         <v>105.84</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE14">
+        <v>106.29</v>
+      </c>
+      <c r="AF14">
+        <v>106.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2001,7 +2086,7 @@
         <v>49662.75</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2048,7 +2133,7 @@
         <v>2871.06</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2139,8 +2224,11 @@
       <c r="AD17">
         <v>146.19999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE17">
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2223,7 +2311,7 @@
         <v>108.62</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2314,8 +2402,14 @@
       <c r="AD19">
         <v>113.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE19">
+        <v>110.5</v>
+      </c>
+      <c r="AF19">
+        <v>113.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2406,8 +2500,14 @@
       <c r="AD20">
         <v>122.61</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE20">
+        <v>132.59759735257001</v>
+      </c>
+      <c r="AF20">
+        <v>132.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2498,8 +2598,14 @@
       <c r="AD21">
         <v>107.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE21">
+        <v>107.8</v>
+      </c>
+      <c r="AF21">
+        <v>109.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2593,8 +2699,11 @@
       <c r="AE22">
         <v>107.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF22">
+        <v>107.98002181566186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2685,8 +2794,14 @@
       <c r="AD23">
         <v>131.30000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE23">
+        <v>131.5</v>
+      </c>
+      <c r="AF23">
+        <v>132.80000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2777,8 +2892,14 @@
       <c r="AD24">
         <v>3813.28</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE24">
+        <v>4396.9676163486401</v>
+      </c>
+      <c r="AF24">
+        <v>4899.39063071073</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2864,7 +2985,7 @@
         <v>326.5</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2955,8 +3076,11 @@
       <c r="AD26">
         <v>134.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE26">
+        <v>137.18596185113901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3047,8 +3171,14 @@
       <c r="AD27">
         <v>109.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE27">
+        <v>112.7</v>
+      </c>
+      <c r="AF27">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3139,8 +3269,11 @@
       <c r="AD28">
         <v>107.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE28">
+        <v>109.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -3231,8 +3364,14 @@
       <c r="AD29">
         <v>108.51</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE29">
+        <v>111.8</v>
+      </c>
+      <c r="AF29">
+        <v>109.93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -3323,8 +3462,17 @@
       <c r="AD30">
         <v>104.23</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE30">
+        <v>103.36</v>
+      </c>
+      <c r="AF30">
+        <v>106.77</v>
+      </c>
+      <c r="AG30">
+        <v>106.59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3415,8 +3563,14 @@
       <c r="AD31">
         <v>119.26</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE31">
+        <v>121.28</v>
+      </c>
+      <c r="AF31">
+        <v>121.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3511,7 +3665,7 @@
         <v>30734.6</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3558,7 +3712,7 @@
         <v>3680.29</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -3649,8 +3803,11 @@
       <c r="AD34">
         <v>147.30000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE34">
+        <v>144.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -3733,7 +3890,7 @@
         <v>113.46</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -3824,8 +3981,14 @@
       <c r="AD36">
         <v>130.69999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE36">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="AF36">
+        <v>130.69999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -3916,8 +4079,14 @@
       <c r="AD37">
         <v>118.96</v>
       </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE37">
+        <v>119.50303326923</v>
+      </c>
+      <c r="AF37">
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -4008,8 +4177,14 @@
       <c r="AD38">
         <v>141.80000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE38">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="AF38">
+        <v>140.80000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -4103,8 +4278,11 @@
       <c r="AE39">
         <v>103.91</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF39">
+        <v>103.9091029232348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -4195,8 +4373,14 @@
       <c r="AD40">
         <v>135</v>
       </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE40">
+        <v>135</v>
+      </c>
+      <c r="AF40">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -4287,8 +4471,14 @@
       <c r="AD41">
         <v>2948.63</v>
       </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE41">
+        <v>3050.24551310378</v>
+      </c>
+      <c r="AF41">
+        <v>3359.1870267580011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -4374,7 +4564,7 @@
         <v>264.10000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -4465,8 +4655,11 @@
       <c r="AD43">
         <v>178.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE43">
+        <v>180.64358770301911</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -4557,8 +4750,14 @@
       <c r="AD44">
         <v>129.80000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE44">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="AF44">
+        <v>129.80000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -4649,8 +4848,11 @@
       <c r="AD45">
         <v>261.60000000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE45">
+        <v>261.60000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -4741,8 +4943,14 @@
       <c r="AD46">
         <v>105.33</v>
       </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE46">
+        <v>105.51</v>
+      </c>
+      <c r="AF46">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -4833,8 +5041,17 @@
       <c r="AD47">
         <v>246</v>
       </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE47">
+        <v>246</v>
+      </c>
+      <c r="AF47">
+        <v>246</v>
+      </c>
+      <c r="AG47">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -4925,8 +5142,14 @@
       <c r="AD48">
         <v>114.75</v>
       </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE48">
+        <v>114.78</v>
+      </c>
+      <c r="AF48">
+        <v>114.77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -5021,7 +5244,7 @@
         <v>23679.61</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -5068,7 +5291,7 @@
         <v>5702.7</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -5159,8 +5382,11 @@
       <c r="AD51">
         <v>181.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE51">
+        <v>177.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -5243,7 +5469,7 @@
         <v>205.88</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -5334,8 +5560,14 @@
       <c r="AD53">
         <v>90.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE53">
+        <v>90.1</v>
+      </c>
+      <c r="AF53">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -5426,8 +5658,14 @@
       <c r="AD54">
         <v>111.04</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE54">
+        <v>115.20866787932999</v>
+      </c>
+      <c r="AF54">
+        <v>116.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -5518,8 +5756,14 @@
       <c r="AD55">
         <v>108.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE55">
+        <v>109</v>
+      </c>
+      <c r="AF55">
+        <v>110.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -5613,8 +5857,11 @@
       <c r="AE56">
         <v>96.54</v>
       </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF56">
+        <v>96.404970154756015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -5705,8 +5952,14 @@
       <c r="AD57">
         <v>123</v>
       </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE57">
+        <v>123.4</v>
+      </c>
+      <c r="AF57">
+        <v>123.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -5797,8 +6050,14 @@
       <c r="AD58">
         <v>4196.6099999999997</v>
       </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE58">
+        <v>5224.9914148019398</v>
+      </c>
+      <c r="AF58">
+        <v>5874.2666158627626</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -5884,7 +6143,7 @@
         <v>430.9</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -5975,8 +6234,11 @@
       <c r="AD60">
         <v>107.7</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE60">
+        <v>109.85953002503798</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -6067,8 +6329,14 @@
       <c r="AD61">
         <v>107.4</v>
       </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE61">
+        <v>109.1</v>
+      </c>
+      <c r="AF61">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -6159,8 +6427,11 @@
       <c r="AD62">
         <v>98.7</v>
       </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE62">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -6251,8 +6522,14 @@
       <c r="AD63">
         <v>94.95</v>
       </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE63">
+        <v>96.41</v>
+      </c>
+      <c r="AF63">
+        <v>97.33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -6343,8 +6620,17 @@
       <c r="AD64">
         <v>90.76</v>
       </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE64">
+        <v>91.92</v>
+      </c>
+      <c r="AF64">
+        <v>92.02</v>
+      </c>
+      <c r="AG64">
+        <v>89.95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>31</v>
       </c>
@@ -6435,8 +6721,14 @@
       <c r="AD65">
         <v>102.62</v>
       </c>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE65">
+        <v>103.33</v>
+      </c>
+      <c r="AF65">
+        <v>102.58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -6531,7 +6823,7 @@
         <v>37269.620000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>31</v>
       </c>
@@ -6578,7 +6870,7 @@
         <v>2537.0300000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -6669,8 +6961,11 @@
       <c r="AD68">
         <v>159.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE68">
+        <v>164.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -6753,7 +7048,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -6844,8 +7139,14 @@
       <c r="AD70">
         <v>93.7</v>
       </c>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE70">
+        <v>93.2</v>
+      </c>
+      <c r="AF70">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -6936,8 +7237,14 @@
       <c r="AD71">
         <v>117.67</v>
       </c>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE71">
+        <v>118.917509053988</v>
+      </c>
+      <c r="AF71">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>31</v>
       </c>
@@ -7028,8 +7335,14 @@
       <c r="AD72">
         <v>120.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE72">
+        <v>118.1</v>
+      </c>
+      <c r="AF72">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>31</v>
       </c>
@@ -7123,8 +7436,11 @@
       <c r="AE73">
         <v>106.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF73">
+        <v>106.85943349001833</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>31</v>
       </c>
@@ -7215,8 +7531,14 @@
       <c r="AD74">
         <v>117.7</v>
       </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE74">
+        <v>117.7</v>
+      </c>
+      <c r="AF74">
+        <v>117.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -7307,8 +7629,14 @@
       <c r="AD75">
         <v>278.77999999999997</v>
       </c>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE75">
+        <v>288.07764407103798</v>
+      </c>
+      <c r="AF75">
+        <v>298.59157252784809</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -7394,7 +7722,7 @@
         <v>189.5</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -7485,8 +7813,11 @@
       <c r="AD77">
         <v>106.8</v>
       </c>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE77">
+        <v>107.16595453483667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -7577,8 +7908,14 @@
       <c r="AD78">
         <v>103.3</v>
       </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE78">
+        <v>103.3</v>
+      </c>
+      <c r="AF78">
+        <v>103.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -7669,8 +8006,11 @@
       <c r="AD79">
         <v>106.4</v>
       </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE79">
+        <v>106.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -7761,8 +8101,14 @@
       <c r="AD80">
         <v>106.37</v>
       </c>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE80">
+        <v>106.18</v>
+      </c>
+      <c r="AF80">
+        <v>106.72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -7853,8 +8199,17 @@
       <c r="AD81">
         <v>90.74</v>
       </c>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE81">
+        <v>91.59</v>
+      </c>
+      <c r="AF81">
+        <v>92.04</v>
+      </c>
+      <c r="AG81">
+        <v>92.04</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>31</v>
       </c>
@@ -7945,8 +8300,14 @@
       <c r="AD82">
         <v>89.02</v>
       </c>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE82">
+        <v>88.82</v>
+      </c>
+      <c r="AF82">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -8041,7 +8402,7 @@
         <v>20478.63</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>31</v>
       </c>
@@ -8088,7 +8449,7 @@
         <v>768.24</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -8179,8 +8540,11 @@
       <c r="AD85">
         <v>137.69999999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE85">
+        <v>136.69999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -8263,7 +8627,7 @@
         <v>96.34</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>31</v>
       </c>
@@ -8354,8 +8718,14 @@
       <c r="AD87">
         <v>98.7</v>
       </c>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE87">
+        <v>98.5</v>
+      </c>
+      <c r="AF87">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>31</v>
       </c>
@@ -8446,8 +8816,14 @@
       <c r="AD88">
         <v>110.26</v>
       </c>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE88">
+        <v>113.18299540765901</v>
+      </c>
+      <c r="AF88">
+        <v>115.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>31</v>
       </c>
@@ -8538,8 +8914,14 @@
       <c r="AD89">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE89">
+        <v>106.4</v>
+      </c>
+      <c r="AF89">
+        <v>108.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>31</v>
       </c>
@@ -8633,8 +9015,11 @@
       <c r="AE90">
         <v>103.23</v>
       </c>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF90">
+        <v>103.91373088712399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>31</v>
       </c>
@@ -8725,8 +9110,14 @@
       <c r="AD91">
         <v>130.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE91">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="AF91">
+        <v>130.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>31</v>
       </c>
@@ -8817,8 +9208,14 @@
       <c r="AD92">
         <v>3469.01</v>
       </c>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE92">
+        <v>3631.21356360866</v>
+      </c>
+      <c r="AF92">
+        <v>4366.78506867329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -8904,7 +9301,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>31</v>
       </c>
@@ -8995,8 +9392,11 @@
       <c r="AD94">
         <v>110.6</v>
       </c>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE94">
+        <v>112.62731839722373</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>31</v>
       </c>
@@ -9087,8 +9487,14 @@
       <c r="AD95">
         <v>104.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE95">
+        <v>104.8</v>
+      </c>
+      <c r="AF95">
+        <v>106.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>31</v>
       </c>
@@ -9179,8 +9585,11 @@
       <c r="AD96">
         <v>120.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE96">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>31</v>
       </c>
@@ -9271,8 +9680,14 @@
       <c r="AD97">
         <v>102.82</v>
       </c>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE97">
+        <v>102.58</v>
+      </c>
+      <c r="AF97">
+        <v>103.12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -9363,8 +9778,17 @@
       <c r="AD98">
         <v>104.21</v>
       </c>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE98">
+        <v>105.47</v>
+      </c>
+      <c r="AF98">
+        <v>105.5</v>
+      </c>
+      <c r="AG98">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>31</v>
       </c>
@@ -9455,8 +9879,14 @@
       <c r="AD99">
         <v>109.55</v>
       </c>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE99">
+        <v>109.5</v>
+      </c>
+      <c r="AF99">
+        <v>110.32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>31</v>
       </c>
@@ -9551,7 +9981,7 @@
         <v>32713.279999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>31</v>
       </c>
@@ -9598,7 +10028,7 @@
         <v>4181.22</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>31</v>
       </c>
@@ -9689,8 +10119,11 @@
       <c r="AD102">
         <v>151.19999999999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE102">
+        <v>148.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>31</v>
       </c>
@@ -9773,7 +10206,7 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>31</v>
       </c>
@@ -9864,8 +10297,14 @@
       <c r="AD104">
         <v>101</v>
       </c>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE104">
+        <v>101</v>
+      </c>
+      <c r="AF104">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>31</v>
       </c>
@@ -9956,8 +10395,14 @@
       <c r="AD105">
         <v>122.36</v>
       </c>
-    </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE105">
+        <v>123.004558213176</v>
+      </c>
+      <c r="AF105">
+        <v>123.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -10048,8 +10493,14 @@
       <c r="AD106">
         <v>147.69999999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE106">
+        <v>149.4</v>
+      </c>
+      <c r="AF106">
+        <v>149.19999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>31</v>
       </c>
@@ -10143,8 +10594,11 @@
       <c r="AE107">
         <v>105.95</v>
       </c>
-    </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF107">
+        <v>105.95519000591874</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>31</v>
       </c>
@@ -10235,8 +10689,14 @@
       <c r="AD108">
         <v>114.2</v>
       </c>
-    </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE108">
+        <v>114.3</v>
+      </c>
+      <c r="AF108">
+        <v>114.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>31</v>
       </c>
@@ -10327,8 +10787,14 @@
       <c r="AD109">
         <v>628.89</v>
       </c>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE109">
+        <v>675.265803795176</v>
+      </c>
+      <c r="AF109">
+        <v>734.62727276641567</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -10414,7 +10880,7 @@
         <v>346.8</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>31</v>
       </c>
@@ -10505,8 +10971,11 @@
       <c r="AD111">
         <v>143.69999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE111">
+        <v>143.6517452953386</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>31</v>
       </c>
@@ -10597,8 +11066,14 @@
       <c r="AD112">
         <v>101.8</v>
       </c>
-    </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE112">
+        <v>101.8</v>
+      </c>
+      <c r="AF112">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>31</v>
       </c>
@@ -10689,8 +11164,11 @@
       <c r="AD113">
         <v>112.2</v>
       </c>
-    </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE113">
+        <v>112.2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>31</v>
       </c>
@@ -10781,8 +11259,14 @@
       <c r="AD114">
         <v>100.01</v>
       </c>
-    </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE114">
+        <v>99.92</v>
+      </c>
+      <c r="AF114">
+        <v>99.57</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>31</v>
       </c>
@@ -10873,8 +11357,17 @@
       <c r="AD115">
         <v>98.32</v>
       </c>
-    </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE115">
+        <v>98.27</v>
+      </c>
+      <c r="AF115">
+        <v>98.27</v>
+      </c>
+      <c r="AG115">
+        <v>98.27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -10965,8 +11458,14 @@
       <c r="AD116">
         <v>102.66</v>
       </c>
-    </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE116">
+        <v>103.16</v>
+      </c>
+      <c r="AF116">
+        <v>103.22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>31</v>
       </c>
@@ -11061,7 +11560,7 @@
         <v>18144.330000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>31</v>
       </c>
@@ -11108,7 +11607,7 @@
         <v>2355.5100000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>31</v>
       </c>
@@ -11199,8 +11698,11 @@
       <c r="AD119">
         <v>140.6</v>
       </c>
-    </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE119">
+        <v>139.1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>31</v>
       </c>
@@ -11283,7 +11785,7 @@
         <v>106.53</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>31</v>
       </c>
@@ -11374,8 +11876,14 @@
       <c r="AD121">
         <v>109.3</v>
       </c>
-    </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE121">
+        <v>108.7</v>
+      </c>
+      <c r="AF121">
+        <v>108.6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>31</v>
       </c>
@@ -11466,8 +11974,14 @@
       <c r="AD122">
         <v>127.26</v>
       </c>
-    </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE122">
+        <v>129.68998472484</v>
+      </c>
+      <c r="AF122">
+        <v>129.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>31</v>
       </c>
@@ -11558,8 +12072,14 @@
       <c r="AD123">
         <v>112.1</v>
       </c>
-    </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE123">
+        <v>111.9</v>
+      </c>
+      <c r="AF123">
+        <v>112.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -11653,8 +12173,11 @@
       <c r="AE124">
         <v>106.56</v>
       </c>
-    </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF124">
+        <v>107.67036278709638</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>31</v>
       </c>
@@ -11745,8 +12268,14 @@
       <c r="AD125">
         <v>137</v>
       </c>
-    </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE125">
+        <v>137</v>
+      </c>
+      <c r="AF125">
+        <v>137.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -11837,8 +12366,14 @@
       <c r="AD126">
         <v>2377.84</v>
       </c>
-    </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE126">
+        <v>2496.6121976449999</v>
+      </c>
+      <c r="AF126">
+        <v>2811.9837487175205</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>31</v>
       </c>
@@ -11924,7 +12459,7 @@
         <v>208.1</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -12015,8 +12550,11 @@
       <c r="AD128">
         <v>115.8</v>
       </c>
-    </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE128">
+        <v>115.96413043577452</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>31</v>
       </c>
@@ -12107,8 +12645,14 @@
       <c r="AD129">
         <v>113.3</v>
       </c>
-    </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE129">
+        <v>118.1</v>
+      </c>
+      <c r="AF129">
+        <v>119.7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>31</v>
       </c>
@@ -12199,8 +12743,11 @@
       <c r="AD130">
         <v>117.2</v>
       </c>
-    </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE130">
+        <v>117.1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>31</v>
       </c>
@@ -12291,8 +12838,14 @@
       <c r="AD131">
         <v>103.19</v>
       </c>
-    </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE131">
+        <v>104.21</v>
+      </c>
+      <c r="AF131">
+        <v>104.11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>31</v>
       </c>
@@ -12383,8 +12936,17 @@
       <c r="AD132">
         <v>109.66</v>
       </c>
-    </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE132">
+        <v>109.17</v>
+      </c>
+      <c r="AF132">
+        <v>109.17</v>
+      </c>
+      <c r="AG132">
+        <v>109.09</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>31</v>
       </c>
@@ -12475,8 +13037,14 @@
       <c r="AD133">
         <v>116.26</v>
       </c>
-    </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE133">
+        <v>117.07</v>
+      </c>
+      <c r="AF133">
+        <v>117.03</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -12571,7 +13139,7 @@
         <v>258505</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>31</v>
       </c>
@@ -12618,7 +13186,7 @@
         <v>2501.13</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>31</v>
       </c>
@@ -12709,8 +13277,11 @@
       <c r="AD136">
         <v>140.5</v>
       </c>
-    </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE136">
+        <v>137.69999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>31</v>
       </c>
@@ -12793,7 +13364,7 @@
         <v>120.51</v>
       </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -12884,8 +13455,14 @@
       <c r="AD138">
         <v>101.1</v>
       </c>
-    </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE138">
+        <v>100.7</v>
+      </c>
+      <c r="AF138">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>31</v>
       </c>
@@ -12976,8 +13553,14 @@
       <c r="AD139">
         <v>104.35</v>
       </c>
-    </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE139">
+        <v>104.45796131725299</v>
+      </c>
+      <c r="AF139">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>31</v>
       </c>
@@ -13068,8 +13651,14 @@
       <c r="AD140">
         <v>120.3</v>
       </c>
-    </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE140">
+        <v>120.1</v>
+      </c>
+      <c r="AF140">
+        <v>119.2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>31</v>
       </c>
@@ -13163,8 +13752,11 @@
       <c r="AE141">
         <v>103.32</v>
       </c>
-    </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF141">
+        <v>103.32222809620981</v>
+      </c>
+    </row>
+    <row r="142" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -13255,8 +13847,14 @@
       <c r="AD142">
         <v>120.2</v>
       </c>
-    </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE142">
+        <v>120.4</v>
+      </c>
+      <c r="AF142">
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>31</v>
       </c>
@@ -13347,8 +13945,14 @@
       <c r="AD143">
         <v>201.03</v>
       </c>
-    </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE143">
+        <v>202.50231259683</v>
+      </c>
+      <c r="AF143">
+        <v>203.63725654179296</v>
+      </c>
+    </row>
+    <row r="144" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>31</v>
       </c>
@@ -13434,7 +14038,7 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -13525,8 +14129,11 @@
       <c r="AD145">
         <v>79</v>
       </c>
-    </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE145">
+        <v>79.501891321686031</v>
+      </c>
+    </row>
+    <row r="146" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>31</v>
       </c>
@@ -13617,8 +14224,14 @@
       <c r="AD146">
         <v>103.8</v>
       </c>
-    </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE146">
+        <v>103.9</v>
+      </c>
+      <c r="AF146">
+        <v>103.8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>31</v>
       </c>
@@ -13709,8 +14322,11 @@
       <c r="AD147">
         <v>94.9</v>
       </c>
-    </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE147">
+        <v>94.9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>31</v>
       </c>
@@ -13801,8 +14417,14 @@
       <c r="AD148">
         <v>94.04</v>
       </c>
-    </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE148">
+        <v>94.39</v>
+      </c>
+      <c r="AF148">
+        <v>94.64</v>
+      </c>
+    </row>
+    <row r="149" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -13893,8 +14515,17 @@
       <c r="AD149">
         <v>94.04</v>
       </c>
-    </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE149">
+        <v>93.06</v>
+      </c>
+      <c r="AF149">
+        <v>93.06</v>
+      </c>
+      <c r="AG149">
+        <v>93.06</v>
+      </c>
+    </row>
+    <row r="150" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>31</v>
       </c>
@@ -13985,8 +14616,14 @@
       <c r="AD150">
         <v>111.47</v>
       </c>
-    </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE150">
+        <v>111.33</v>
+      </c>
+      <c r="AF150">
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>31</v>
       </c>
@@ -14081,7 +14718,7 @@
         <v>17288.48</v>
       </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>31</v>
       </c>
@@ -14128,7 +14765,7 @@
         <v>448.23</v>
       </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>31</v>
       </c>
@@ -14219,8 +14856,11 @@
       <c r="AD153">
         <v>106.2</v>
       </c>
-    </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE153">
+        <v>105.9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>31</v>
       </c>
@@ -14303,7 +14943,7 @@
         <v>101.75</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>31</v>
       </c>
@@ -14394,8 +15034,14 @@
       <c r="AD155">
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE155">
+        <v>65</v>
+      </c>
+      <c r="AF155">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>31</v>
       </c>
@@ -14486,8 +15132,14 @@
       <c r="AD156">
         <v>150.91999999999999</v>
       </c>
-    </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE156">
+        <v>152.95694788192901</v>
+      </c>
+      <c r="AF156">
+        <v>153.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>31</v>
       </c>
@@ -14578,8 +15230,14 @@
       <c r="AD157">
         <v>103.7</v>
       </c>
-    </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE157">
+        <v>106</v>
+      </c>
+      <c r="AF157">
+        <v>107.6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -14673,8 +15331,11 @@
       <c r="AE158">
         <v>103.69</v>
       </c>
-    </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF158">
+        <v>104.32461133651657</v>
+      </c>
+    </row>
+    <row r="159" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>31</v>
       </c>
@@ -14765,8 +15426,14 @@
       <c r="AD159">
         <v>122.5</v>
       </c>
-    </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE159">
+        <v>123</v>
+      </c>
+      <c r="AF159">
+        <v>123.2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>31</v>
       </c>
@@ -14857,8 +15524,14 @@
       <c r="AD160">
         <v>1164.1500000000001</v>
       </c>
-    </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE160">
+        <v>1193.6345805051101</v>
+      </c>
+      <c r="AF160">
+        <v>1237.1561937301249</v>
+      </c>
+    </row>
+    <row r="161" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>31</v>
       </c>
@@ -14944,7 +15617,7 @@
         <v>206.6</v>
       </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -15035,8 +15708,11 @@
       <c r="AD162">
         <v>114.4</v>
       </c>
-    </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE162">
+        <v>114.45705998031195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>31</v>
       </c>
@@ -15127,8 +15803,14 @@
       <c r="AD163">
         <v>101.6</v>
       </c>
-    </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE163">
+        <v>101.7</v>
+      </c>
+      <c r="AF163">
+        <v>104.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>31</v>
       </c>
@@ -15219,8 +15901,11 @@
       <c r="AD164">
         <v>102</v>
       </c>
-    </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE164">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="165" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>31</v>
       </c>
@@ -15311,8 +15996,14 @@
       <c r="AD165">
         <v>121.53</v>
       </c>
-    </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE165">
+        <v>121.41</v>
+      </c>
+      <c r="AF165">
+        <v>124.33</v>
+      </c>
+    </row>
+    <row r="166" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>31</v>
       </c>
@@ -15403,8 +16094,17 @@
       <c r="AD166">
         <v>100.83</v>
       </c>
-    </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE166">
+        <v>100.64</v>
+      </c>
+      <c r="AF166">
+        <v>107.99</v>
+      </c>
+      <c r="AG166">
+        <v>110.43</v>
+      </c>
+    </row>
+    <row r="167" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>31</v>
       </c>
@@ -15495,8 +16195,14 @@
       <c r="AD167">
         <v>104.87</v>
       </c>
-    </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE167">
+        <v>105.21</v>
+      </c>
+      <c r="AF167">
+        <v>104.98</v>
+      </c>
+    </row>
+    <row r="168" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>31</v>
       </c>
@@ -15591,7 +16297,7 @@
         <v>96150.32</v>
       </c>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>31</v>
       </c>
@@ -15638,7 +16344,7 @@
         <v>3633.18</v>
       </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>31</v>
       </c>
@@ -15729,8 +16435,11 @@
       <c r="AD170">
         <v>133</v>
       </c>
-    </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE170">
+        <v>131.4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>31</v>
       </c>
@@ -15813,7 +16522,7 @@
         <v>102.73</v>
       </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>31</v>
       </c>
@@ -15904,8 +16613,14 @@
       <c r="AD172">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE172">
+        <v>105.3</v>
+      </c>
+      <c r="AF172">
+        <v>105.3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>31</v>
       </c>
@@ -15996,8 +16711,14 @@
       <c r="AD173">
         <v>196.37</v>
       </c>
-    </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE173">
+        <v>196.36658808966399</v>
+      </c>
+      <c r="AF173">
+        <v>196.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>31</v>
       </c>
@@ -16088,8 +16809,14 @@
       <c r="AD174">
         <v>154.6</v>
       </c>
-    </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE174">
+        <v>154.5</v>
+      </c>
+      <c r="AF174">
+        <v>154.80000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>31</v>
       </c>
@@ -16183,8 +16910,11 @@
       <c r="AE175">
         <v>105.63</v>
       </c>
-    </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF175">
+        <v>105.63046980310921</v>
+      </c>
+    </row>
+    <row r="176" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>31</v>
       </c>
@@ -16275,8 +17005,14 @@
       <c r="AD176">
         <v>124.9</v>
       </c>
-    </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE176">
+        <v>124.9</v>
+      </c>
+      <c r="AF176">
+        <v>124.9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>31</v>
       </c>
@@ -16367,8 +17103,14 @@
       <c r="AD177">
         <v>186.22</v>
       </c>
-    </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE177">
+        <v>186.21973052356901</v>
+      </c>
+      <c r="AF177">
+        <v>186.21973052356867</v>
+      </c>
+    </row>
+    <row r="178" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>31</v>
       </c>
@@ -16454,7 +17196,7 @@
         <v>380.1</v>
       </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>31</v>
       </c>
@@ -16545,8 +17287,11 @@
       <c r="AD179">
         <v>131.1</v>
       </c>
-    </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE179">
+        <v>131.13524558941515</v>
+      </c>
+    </row>
+    <row r="180" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>31</v>
       </c>
@@ -16637,8 +17382,14 @@
       <c r="AD180">
         <v>111.7</v>
       </c>
-    </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE180">
+        <v>111.7</v>
+      </c>
+      <c r="AF180">
+        <v>111.7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>31</v>
       </c>
@@ -16729,8 +17480,11 @@
       <c r="AD181">
         <v>138.9</v>
       </c>
-    </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE181">
+        <v>138.9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>31</v>
       </c>
@@ -16821,8 +17575,14 @@
       <c r="AD182">
         <v>102.32</v>
       </c>
-    </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE182">
+        <v>102.32</v>
+      </c>
+      <c r="AF182">
+        <v>102.32</v>
+      </c>
+    </row>
+    <row r="183" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>31</v>
       </c>
@@ -16913,8 +17673,17 @@
       <c r="AD183">
         <v>110.8</v>
       </c>
-    </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE183">
+        <v>110.8</v>
+      </c>
+      <c r="AF183">
+        <v>110.8</v>
+      </c>
+      <c r="AG183">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -17005,8 +17774,14 @@
       <c r="AD184">
         <v>99.52</v>
       </c>
-    </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE184">
+        <v>99.78</v>
+      </c>
+      <c r="AF184">
+        <v>99.78</v>
+      </c>
+    </row>
+    <row r="185" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>31</v>
       </c>
@@ -17101,7 +17876,7 @@
         <v>14807.51</v>
       </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>31</v>
       </c>
@@ -17148,7 +17923,7 @@
         <v>1145.24</v>
       </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>31</v>
       </c>
@@ -17239,8 +18014,11 @@
       <c r="AD187">
         <v>160.30000000000001</v>
       </c>
-    </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE187">
+        <v>159.4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>31</v>
       </c>
@@ -17323,7 +18101,7 @@
         <v>120.79</v>
       </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>31</v>
       </c>
@@ -17414,8 +18192,14 @@
       <c r="AD189">
         <v>102.6</v>
       </c>
-    </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE189">
+        <v>101.2</v>
+      </c>
+      <c r="AF189">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>31</v>
       </c>
@@ -17506,8 +18290,14 @@
       <c r="AD190">
         <v>127.75</v>
       </c>
-    </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE190">
+        <v>130.73926789138901</v>
+      </c>
+      <c r="AF190">
+        <v>134.9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>31</v>
       </c>
@@ -17598,8 +18388,14 @@
       <c r="AD191">
         <v>123.5</v>
       </c>
-    </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE191">
+        <v>124.1</v>
+      </c>
+      <c r="AF191">
+        <v>125.6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>31</v>
       </c>
@@ -17693,8 +18489,11 @@
       <c r="AE192">
         <v>107.28</v>
       </c>
-    </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF192">
+        <v>115.93842775998611</v>
+      </c>
+    </row>
+    <row r="193" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>31</v>
       </c>
@@ -17785,8 +18584,14 @@
       <c r="AD193">
         <v>126.2</v>
       </c>
-    </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE193">
+        <v>126.2</v>
+      </c>
+      <c r="AF193">
+        <v>126.2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>31</v>
       </c>
@@ -17877,8 +18682,14 @@
       <c r="AD194">
         <v>5132.4799999999996</v>
       </c>
-    </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE194">
+        <v>5408.8167559348003</v>
+      </c>
+      <c r="AF194">
+        <v>5840.6983830675435</v>
+      </c>
+    </row>
+    <row r="195" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>31</v>
       </c>
@@ -17964,7 +18775,7 @@
         <v>346.2</v>
       </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>31</v>
       </c>
@@ -18055,8 +18866,11 @@
       <c r="AD196">
         <v>118.2</v>
       </c>
-    </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE196">
+        <v>118.67527288176568</v>
+      </c>
+    </row>
+    <row r="197" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>31</v>
       </c>
@@ -18147,8 +18961,14 @@
       <c r="AD197">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE197">
+        <v>105.2</v>
+      </c>
+      <c r="AF197">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>31</v>
       </c>
@@ -18239,8 +19059,11 @@
       <c r="AD198">
         <v>105</v>
       </c>
-    </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE198">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>31</v>
       </c>
@@ -18331,8 +19154,14 @@
       <c r="AD199">
         <v>107.85</v>
       </c>
-    </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE199">
+        <v>107.59</v>
+      </c>
+      <c r="AF199">
+        <v>110.61</v>
+      </c>
+    </row>
+    <row r="200" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>31</v>
       </c>
@@ -18423,8 +19252,17 @@
       <c r="AD200">
         <v>104.79</v>
       </c>
-    </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE200">
+        <v>106.44</v>
+      </c>
+      <c r="AF200">
+        <v>106.79</v>
+      </c>
+      <c r="AG200">
+        <v>106.51</v>
+      </c>
+    </row>
+    <row r="201" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>31</v>
       </c>
@@ -18515,8 +19353,14 @@
       <c r="AD201">
         <v>114.88</v>
       </c>
-    </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE201">
+        <v>115.48</v>
+      </c>
+      <c r="AF201">
+        <v>116.44</v>
+      </c>
+    </row>
+    <row r="202" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>31</v>
       </c>
@@ -18611,7 +19455,7 @@
         <v>40543.519999999997</v>
       </c>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>31</v>
       </c>
@@ -18658,7 +19502,7 @@
         <v>16324.87</v>
       </c>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>31</v>
       </c>
@@ -18749,8 +19593,11 @@
       <c r="AD204">
         <v>166.5</v>
       </c>
-    </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE204">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="205" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>31</v>
       </c>
@@ -18833,7 +19680,7 @@
         <v>117.96</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>31</v>
       </c>
@@ -18924,8 +19771,14 @@
       <c r="AD206">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE206">
+        <v>106</v>
+      </c>
+      <c r="AF206">
+        <v>104.8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>31</v>
       </c>
@@ -19016,8 +19869,14 @@
       <c r="AD207">
         <v>121.9</v>
       </c>
-    </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE207">
+        <v>124.205367450143</v>
+      </c>
+      <c r="AF207">
+        <v>125.9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>31</v>
       </c>
@@ -19108,8 +19967,14 @@
       <c r="AD208">
         <v>144.19999999999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE208">
+        <v>145</v>
+      </c>
+      <c r="AF208">
+        <v>143.80000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>31</v>
       </c>
@@ -19203,8 +20068,11 @@
       <c r="AE209">
         <v>105.14</v>
       </c>
-    </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF209">
+        <v>105.72445093484504</v>
+      </c>
+    </row>
+    <row r="210" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>31</v>
       </c>
@@ -19295,8 +20163,14 @@
       <c r="AD210">
         <v>121.2</v>
       </c>
-    </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE210">
+        <v>122</v>
+      </c>
+      <c r="AF210">
+        <v>122.1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>31</v>
       </c>
@@ -19387,8 +20261,14 @@
       <c r="AD211">
         <v>2135.21</v>
       </c>
-    </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE211">
+        <v>2287.7284875175401</v>
+      </c>
+      <c r="AF211">
+        <v>2513.2088007850048</v>
+      </c>
+    </row>
+    <row r="212" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>31</v>
       </c>
@@ -19474,7 +20354,7 @@
         <v>297.2</v>
       </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>31</v>
       </c>
@@ -19565,8 +20445,11 @@
       <c r="AD213">
         <v>111.5</v>
       </c>
-    </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE213">
+        <v>111.67407963789113</v>
+      </c>
+    </row>
+    <row r="214" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>31</v>
       </c>
@@ -19657,8 +20540,14 @@
       <c r="AD214">
         <v>109</v>
       </c>
-    </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE214">
+        <v>109.5</v>
+      </c>
+      <c r="AF214">
+        <v>109.8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>31</v>
       </c>
@@ -19749,8 +20638,11 @@
       <c r="AD215">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE215">
+        <v>104.2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>31</v>
       </c>
@@ -19841,8 +20733,14 @@
       <c r="AD216">
         <v>109.35</v>
       </c>
-    </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE216">
+        <v>109.43</v>
+      </c>
+      <c r="AF216">
+        <v>109.45</v>
+      </c>
+    </row>
+    <row r="217" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>31</v>
       </c>
@@ -19933,8 +20831,17 @@
       <c r="AD217">
         <v>109.88</v>
       </c>
-    </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE217">
+        <v>111.7</v>
+      </c>
+      <c r="AF217">
+        <v>110.82</v>
+      </c>
+      <c r="AG217">
+        <v>109.28</v>
+      </c>
+    </row>
+    <row r="218" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>31</v>
       </c>
@@ -20025,8 +20932,14 @@
       <c r="AD218">
         <v>108.42</v>
       </c>
-    </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE218">
+        <v>108.47</v>
+      </c>
+      <c r="AF218">
+        <v>108.54</v>
+      </c>
+    </row>
+    <row r="219" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>31</v>
       </c>
@@ -20121,7 +21034,7 @@
         <v>34729.379999999997</v>
       </c>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>31</v>
       </c>
@@ -20168,7 +21081,7 @@
         <v>3362.99</v>
       </c>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>31</v>
       </c>
@@ -20259,8 +21172,11 @@
       <c r="AD221">
         <v>160.5</v>
       </c>
-    </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AE221">
+        <v>158.4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>31</v>
       </c>
@@ -20344,6 +21260,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>